--- a/medicine/Pharmacie/Agastache_cana/Agastache_cana.xlsx
+++ b/medicine/Pharmacie/Agastache_cana/Agastache_cana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agastache cana, l’agastache argentée, la reine-des-bruyères, l'herbe à moustique ou l'hysope sauvage, est une espèce de plantes à fleurs de la famille des Lamiaceae (Labiées), sous-famille des Nepetoideae (Népétoïdées), tribu des Mentheae, genre Agastache, cultivée essentiellement pour l'aspect décoratif de ses magnifiques épis floraux rose mauve, bien qu'elle puisse également être utilisée comme aromate et condiment. Elle est également recherchée comme plante mellifère.
 Bien que vivace dans son aire d'extension, sa durée de vie est courte (typiquement annuelle) sous les climats tempérés. De ce fait, on lui préfère souvent l'Agastache foeniculum.
@@ -514,7 +526,9 @@
           <t>Caractéristiques botaniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plante herbacée vivace dans son aire d'extension, mais durée de vie typiquement annuelle en climat tempéré.
 Tige : vigoureuses touffes dressées (50 cm à 1 m).
@@ -549,7 +563,9 @@
           <t>Principaux cultivars</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'agastache argentée s'hybride très facilement avec les autres espèces d'agastaches. Il est donc prudent de ne pas mélanger les espèces dans le même jardin si l'on veut conserver une souche pure.
 </t>
@@ -580,7 +596,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Agastache cana est une plante vivace sous les climats chauds mais de courte durée de vie (annuelle) sous climat tempéré. Il est recommandé de protéger le pied en cas de fortes gelées.
 Elle sait s'adapter à la plupart des types de sols à condition qu'ils soient correctement drainés. Elle préfère une exposition ensoleillée.
@@ -614,9 +632,11 @@
           <t>Origine et répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agastache cana est originaire  du Texas et du Nouveau-Mexique[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agastache cana est originaire  du Texas et du Nouveau-Mexique.
 </t>
         </is>
       </c>
@@ -645,7 +665,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux États-Unis, elle est surtout plantée à titre décoratif ou pour ses vertus mellifères.
 Elle possède cependant les mêmes qualités aromatiques que les autres membres du genre Agastache.
@@ -681,7 +703,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cedronella cana Hook.
 Brittonastrum canum (Hook.) Briq.</t>
